--- a/i2up/excel/rule_auto.xlsx
+++ b/i2up/excel/rule_auto.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A2CA0-6A63-D44C-AA63-038BC53A82B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0592A62-DE12-144F-99A3-C9D27572B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29220" yWindow="3040" windowWidth="28800" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26180" yWindow="4680" windowWidth="28800" windowHeight="15180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_u_auto" sheetId="1" r:id="rId1"/>
     <sheet name="msq_c1_auto" sheetId="2" r:id="rId2"/>
-    <sheet name="msq_u_c1_auto" sheetId="3" r:id="rId3"/>
-    <sheet name="kfk_u_auto" sheetId="4" r:id="rId4"/>
+    <sheet name="kfk_u_auto" sheetId="3" r:id="rId3"/>
+    <sheet name="msq_u_c1_auto" sheetId="4" r:id="rId4"/>
     <sheet name="msq_u_kfk_auto" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="397">
   <si>
     <t>{</t>
   </si>
@@ -206,21 +206,213 @@
     <t>"msq_c1_auto"</t>
   </si>
   <si>
+    <t>"bin_log":</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>"biz_grp_list":</t>
+  </si>
+  <si>
+    <t>"none"</t>
+  </si>
+  <si>
+    <t>"authentication":</t>
+  </si>
+  <si>
+    <t>"broker_server":</t>
+  </si>
+  <si>
+    <t>"charset":</t>
+  </si>
+  <si>
+    <t>"cluster":</t>
+  </si>
+  <si>
+    <t>"conn_pool_max":</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>"database_name":</t>
+  </si>
+  <si>
+    <t>"db_ip":</t>
+  </si>
+  <si>
+    <t>9092</t>
+  </si>
+  <si>
+    <t>"db_schema":</t>
+  </si>
+  <si>
+    <t>"oracle"</t>
+  </si>
+  <si>
+    <t>"db2_run_system":</t>
+  </si>
+  <si>
+    <t>"LUW"</t>
+  </si>
+  <si>
+    <t>"filter_session":</t>
+  </si>
+  <si>
+    <t>"gmssl":</t>
+  </si>
+  <si>
+    <t>"instance_name":</t>
+  </si>
+  <si>
+    <t>"kerberos_keytab_path":</t>
+  </si>
+  <si>
+    <t>"kerberos_principal":</t>
+  </si>
+  <si>
+    <t>"kerberos_service_name":</t>
+  </si>
+  <si>
+    <t>"kafka"</t>
+  </si>
+  <si>
+    <t>"kudu_impala":</t>
+  </si>
+  <si>
+    <t>"default_database":</t>
+  </si>
+  <si>
+    <t>"impala_auth_type":</t>
+  </si>
+  <si>
+    <t>"no_auth"</t>
+  </si>
+  <si>
+    <t>"impala_client_keytab_path":</t>
+  </si>
+  <si>
+    <t>"impala_client_krb_principal":</t>
+  </si>
+  <si>
+    <t>"impala_server_ip":</t>
+  </si>
+  <si>
+    <t>"impala_server_krbhost_fqdn":</t>
+  </si>
+  <si>
+    <t>"impala_server_krbrealm":</t>
+  </si>
+  <si>
+    <t>"impala_server_krbservice_name":</t>
+  </si>
+  <si>
+    <t>"impala"</t>
+  </si>
+  <si>
+    <t>"impala_server_port":</t>
+  </si>
+  <si>
+    <t>21050</t>
+  </si>
+  <si>
+    <t>"log_read":</t>
+  </si>
+  <si>
+    <t>"asm_instance":</t>
+  </si>
+  <si>
+    <t>"asm_ip":</t>
+  </si>
+  <si>
+    <t>"asm_password":</t>
+  </si>
+  <si>
+    <t>"asm_port":</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>"asm_username":</t>
+  </si>
+  <si>
+    <t>"os_auth":</t>
+  </si>
+  <si>
+    <t>"login_url":</t>
+  </si>
+  <si>
+    <t>"model":</t>
+  </si>
+  <si>
+    <t>"password":</t>
+  </si>
+  <si>
+    <t>"pdserver":</t>
+  </si>
+  <si>
+    <t>"relay":</t>
+  </si>
+  <si>
+    <t>"relay_node_uuid":</t>
+  </si>
+  <si>
+    <t>"remote_file_agent":</t>
+  </si>
+  <si>
+    <t>"compress":</t>
+  </si>
+  <si>
+    <t>"no"</t>
+  </si>
+  <si>
+    <t>"sasl_plain_user":</t>
+  </si>
+  <si>
+    <t>"server_name":</t>
+  </si>
+  <si>
+    <t>"sniff":</t>
+  </si>
+  <si>
+    <t>"sqlserver":</t>
+  </si>
+  <si>
+    <t>"user_oceanbase":</t>
+  </si>
+  <si>
+    <t>"sys"</t>
+  </si>
+  <si>
+    <t>"username":</t>
+  </si>
+  <si>
+    <t>"zookeeper":</t>
+  </si>
+  <si>
+    <t>"set":</t>
+  </si>
+  <si>
+    <t>"kfk_u_auto"</t>
+  </si>
+  <si>
+    <t>"db_uuid":</t>
+  </si>
+  <si>
+    <t>"modify":</t>
+  </si>
+  <si>
     <t>"auto_mode":</t>
   </si>
   <si>
-    <t>"biz_grp_list":</t>
-  </si>
-  <si>
     <t>"biz_grp_name":</t>
   </si>
   <si>
     <t>"column_map":</t>
   </si>
   <si>
-    <t>"compress":</t>
-  </si>
-  <si>
     <t>"compress_switch":</t>
   </si>
   <si>
@@ -500,9 +692,6 @@
     <t>"save_json_text":</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>"src_connect_user":</t>
   </si>
   <si>
@@ -671,9 +860,6 @@
     <t>"1:0"</t>
   </si>
   <si>
-    <t>"modify":</t>
-  </si>
-  <si>
     <t>"mysql_name":</t>
   </si>
   <si>
@@ -818,192 +1004,6 @@
     <t>"tgt_type":</t>
   </si>
   <si>
-    <t>"bin_log":</t>
-  </si>
-  <si>
-    <t>"none"</t>
-  </si>
-  <si>
-    <t>"authentication":</t>
-  </si>
-  <si>
-    <t>"broker_server":</t>
-  </si>
-  <si>
-    <t>"charset":</t>
-  </si>
-  <si>
-    <t>"cluster":</t>
-  </si>
-  <si>
-    <t>"conn_pool_max":</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>"database_name":</t>
-  </si>
-  <si>
-    <t>"db_ip":</t>
-  </si>
-  <si>
-    <t>9092</t>
-  </si>
-  <si>
-    <t>"db_schema":</t>
-  </si>
-  <si>
-    <t>"oracle"</t>
-  </si>
-  <si>
-    <t>"db2_run_system":</t>
-  </si>
-  <si>
-    <t>"LUW"</t>
-  </si>
-  <si>
-    <t>"filter_session":</t>
-  </si>
-  <si>
-    <t>"gmssl":</t>
-  </si>
-  <si>
-    <t>"instance_name":</t>
-  </si>
-  <si>
-    <t>"kerberos_keytab_path":</t>
-  </si>
-  <si>
-    <t>"kerberos_principal":</t>
-  </si>
-  <si>
-    <t>"kerberos_service_name":</t>
-  </si>
-  <si>
-    <t>"kafka"</t>
-  </si>
-  <si>
-    <t>"kudu_impala":</t>
-  </si>
-  <si>
-    <t>"default_database":</t>
-  </si>
-  <si>
-    <t>"impala_auth_type":</t>
-  </si>
-  <si>
-    <t>"no_auth"</t>
-  </si>
-  <si>
-    <t>"impala_client_keytab_path":</t>
-  </si>
-  <si>
-    <t>"impala_client_krb_principal":</t>
-  </si>
-  <si>
-    <t>"impala_server_ip":</t>
-  </si>
-  <si>
-    <t>"impala_server_krbhost_fqdn":</t>
-  </si>
-  <si>
-    <t>"impala_server_krbrealm":</t>
-  </si>
-  <si>
-    <t>"impala_server_krbservice_name":</t>
-  </si>
-  <si>
-    <t>"impala"</t>
-  </si>
-  <si>
-    <t>"impala_server_port":</t>
-  </si>
-  <si>
-    <t>21050</t>
-  </si>
-  <si>
-    <t>"log_read":</t>
-  </si>
-  <si>
-    <t>"asm_instance":</t>
-  </si>
-  <si>
-    <t>"asm_ip":</t>
-  </si>
-  <si>
-    <t>"asm_password":</t>
-  </si>
-  <si>
-    <t>"asm_port":</t>
-  </si>
-  <si>
-    <t>1521</t>
-  </si>
-  <si>
-    <t>"asm_username":</t>
-  </si>
-  <si>
-    <t>"os_auth":</t>
-  </si>
-  <si>
-    <t>"login_url":</t>
-  </si>
-  <si>
-    <t>"model":</t>
-  </si>
-  <si>
-    <t>"password":</t>
-  </si>
-  <si>
-    <t>"pdserver":</t>
-  </si>
-  <si>
-    <t>"relay":</t>
-  </si>
-  <si>
-    <t>"relay_node_uuid":</t>
-  </si>
-  <si>
-    <t>"remote_file_agent":</t>
-  </si>
-  <si>
-    <t>"no"</t>
-  </si>
-  <si>
-    <t>"sasl_plain_user":</t>
-  </si>
-  <si>
-    <t>"server_name":</t>
-  </si>
-  <si>
-    <t>"sniff":</t>
-  </si>
-  <si>
-    <t>"sqlserver":</t>
-  </si>
-  <si>
-    <t>"user_oceanbase":</t>
-  </si>
-  <si>
-    <t>"sys"</t>
-  </si>
-  <si>
-    <t>"username":</t>
-  </si>
-  <si>
-    <t>"zookeeper":</t>
-  </si>
-  <si>
-    <t>"set":</t>
-  </si>
-  <si>
-    <t>"kfk_u_auto"</t>
-  </si>
-  <si>
-    <t>"db_uuid":</t>
-  </si>
-  <si>
     <t>"batch_advanced_settings":</t>
   </si>
   <si>
@@ -1133,16 +1133,10 @@
     <t>"prefix":</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>"rule_uuids":</t>
   </si>
   <si>
     <t>"search_ip":</t>
-  </si>
-  <si>
-    <t>"["192.168.55.250"]"</t>
   </si>
   <si>
     <t>"src_build_in":</t>
@@ -1227,10 +1221,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1256,8 +1270,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1562,7 +1579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1612,7 +1631,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -1631,7 +1650,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -1644,7 +1663,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
@@ -1655,7 +1674,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
@@ -1673,7 +1692,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -1753,7 +1772,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
@@ -1799,7 +1818,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
@@ -1821,7 +1840,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D30" t="s">
@@ -1843,7 +1862,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" t="s">
@@ -1888,7 +1907,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B38" t="s">
@@ -1899,7 +1918,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
@@ -1954,7 +1973,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44" t="s">
@@ -1975,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2378,1902 +2397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E204"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D69" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D81" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D84" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D85" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
-        <v>143</v>
-      </c>
-      <c r="E86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D89" t="s">
-        <v>146</v>
-      </c>
-      <c r="E89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D90" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D92" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D93" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D94" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>155</v>
-      </c>
-      <c r="C99" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" t="s">
-        <v>158</v>
-      </c>
-      <c r="D101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>161</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>162</v>
-      </c>
-      <c r="B106" t="s">
-        <v>163</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>166</v>
-      </c>
-      <c r="C109" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>168</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" t="s">
-        <v>158</v>
-      </c>
-      <c r="D112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>172</v>
-      </c>
-      <c r="C115" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>173</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" t="s">
-        <v>158</v>
-      </c>
-      <c r="D118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" t="s">
-        <v>158</v>
-      </c>
-      <c r="D121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>179</v>
-      </c>
-      <c r="C123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" t="s">
-        <v>181</v>
-      </c>
-      <c r="D124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" t="s">
-        <v>183</v>
-      </c>
-      <c r="D125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>184</v>
-      </c>
-      <c r="C126" t="s">
-        <v>185</v>
-      </c>
-      <c r="D126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>186</v>
-      </c>
-      <c r="C127" t="s">
-        <v>187</v>
-      </c>
-      <c r="D127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>188</v>
-      </c>
-      <c r="C128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>189</v>
-      </c>
-      <c r="B130" t="s">
-        <v>163</v>
-      </c>
-      <c r="C130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>190</v>
-      </c>
-      <c r="B131" t="s">
-        <v>163</v>
-      </c>
-      <c r="C131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>191</v>
-      </c>
-      <c r="B132" t="s">
-        <v>87</v>
-      </c>
-      <c r="C132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>192</v>
-      </c>
-      <c r="B133" t="s">
-        <v>87</v>
-      </c>
-      <c r="C133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>193</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>194</v>
-      </c>
-      <c r="C135" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>196</v>
-      </c>
-      <c r="C136" t="s">
-        <v>197</v>
-      </c>
-      <c r="D136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>198</v>
-      </c>
-      <c r="C137" t="s">
-        <v>199</v>
-      </c>
-      <c r="D137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>200</v>
-      </c>
-      <c r="C138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>201</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>202</v>
-      </c>
-      <c r="B141" t="s">
-        <v>31</v>
-      </c>
-      <c r="C141" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>203</v>
-      </c>
-      <c r="B142" t="s">
-        <v>31</v>
-      </c>
-      <c r="C142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>204</v>
-      </c>
-      <c r="B143" t="s">
-        <v>87</v>
-      </c>
-      <c r="C143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>94</v>
-      </c>
-      <c r="B144" t="s">
-        <v>95</v>
-      </c>
-      <c r="C144" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>205</v>
-      </c>
-      <c r="B145" t="s">
-        <v>163</v>
-      </c>
-      <c r="C145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>206</v>
-      </c>
-      <c r="B146" t="s">
-        <v>87</v>
-      </c>
-      <c r="C146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>207</v>
-      </c>
-      <c r="B147" t="s">
-        <v>31</v>
-      </c>
-      <c r="C147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>208</v>
-      </c>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>209</v>
-      </c>
-      <c r="B149" t="s">
-        <v>210</v>
-      </c>
-      <c r="C149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>211</v>
-      </c>
-      <c r="B150" t="s">
-        <v>212</v>
-      </c>
-      <c r="C150" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>213</v>
-      </c>
-      <c r="B151" t="s">
-        <v>214</v>
-      </c>
-      <c r="C151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>215</v>
-      </c>
-      <c r="B152" t="s">
-        <v>36</v>
-      </c>
-      <c r="C152" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>216</v>
-      </c>
-      <c r="B153" t="s">
-        <v>217</v>
-      </c>
-      <c r="C153" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>218</v>
-      </c>
-      <c r="B154" t="s">
-        <v>219</v>
-      </c>
-      <c r="C154" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>220</v>
-      </c>
-      <c r="B155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>221</v>
-      </c>
-      <c r="B156" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>222</v>
-      </c>
-      <c r="C157" t="s">
-        <v>87</v>
-      </c>
-      <c r="D157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>223</v>
-      </c>
-      <c r="C158" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C159" t="s">
-        <v>224</v>
-      </c>
-      <c r="D159" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
-        <v>225</v>
-      </c>
-      <c r="D160" t="s">
-        <v>31</v>
-      </c>
-      <c r="E160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
-        <v>226</v>
-      </c>
-      <c r="D161" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
-        <v>227</v>
-      </c>
-      <c r="D162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>228</v>
-      </c>
-      <c r="C164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
-        <v>229</v>
-      </c>
-      <c r="D166" t="s">
-        <v>230</v>
-      </c>
-      <c r="E166" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
-        <v>231</v>
-      </c>
-      <c r="D167" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C169" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>206</v>
-      </c>
-      <c r="C170" t="s">
-        <v>87</v>
-      </c>
-      <c r="D170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
-        <v>233</v>
-      </c>
-      <c r="C171" t="s">
-        <v>234</v>
-      </c>
-      <c r="D171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
-        <v>235</v>
-      </c>
-      <c r="C172" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>236</v>
-      </c>
-      <c r="B174" t="s">
-        <v>237</v>
-      </c>
-      <c r="C174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>238</v>
-      </c>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>239</v>
-      </c>
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>240</v>
-      </c>
-      <c r="B177" t="s">
-        <v>241</v>
-      </c>
-      <c r="C177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>242</v>
-      </c>
-      <c r="B178" t="s">
-        <v>241</v>
-      </c>
-      <c r="C178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>243</v>
-      </c>
-      <c r="B179" t="s">
-        <v>212</v>
-      </c>
-      <c r="C179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>244</v>
-      </c>
-      <c r="B180" t="s">
-        <v>212</v>
-      </c>
-      <c r="C180" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>245</v>
-      </c>
-      <c r="B181" t="s">
-        <v>241</v>
-      </c>
-      <c r="C181" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>246</v>
-      </c>
-      <c r="B182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>247</v>
-      </c>
-      <c r="B183" t="s">
-        <v>46</v>
-      </c>
-      <c r="C183" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>248</v>
-      </c>
-      <c r="B184" t="s">
-        <v>31</v>
-      </c>
-      <c r="C184" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>249</v>
-      </c>
-      <c r="B185" t="s">
-        <v>31</v>
-      </c>
-      <c r="C185" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>250</v>
-      </c>
-      <c r="B186" t="s">
-        <v>31</v>
-      </c>
-      <c r="C186" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>251</v>
-      </c>
-      <c r="B187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>252</v>
-      </c>
-      <c r="C189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C190" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C191" t="s">
-        <v>253</v>
-      </c>
-      <c r="D191" t="s">
-        <v>254</v>
-      </c>
-      <c r="E191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C192" t="s">
-        <v>255</v>
-      </c>
-      <c r="D192" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C193" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C194" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>256</v>
-      </c>
-      <c r="C195" t="s">
-        <v>34</v>
-      </c>
-      <c r="D195" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
-        <v>257</v>
-      </c>
-      <c r="C196" t="s">
-        <v>258</v>
-      </c>
-      <c r="D196" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
-        <v>259</v>
-      </c>
-      <c r="C197" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>260</v>
-      </c>
-      <c r="C198" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>261</v>
-      </c>
-      <c r="B201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>262</v>
-      </c>
-      <c r="B202" t="s">
-        <v>59</v>
-      </c>
-      <c r="C202" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>263</v>
-      </c>
-      <c r="B203" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4292,10 +2419,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -4314,7 +2441,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -4346,7 +2473,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -4358,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -4366,7 +2493,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4377,7 +2504,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -4388,7 +2515,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4399,7 +2526,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4410,10 +2537,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -4421,7 +2548,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>272</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -4432,7 +2559,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -4442,23 +2569,27 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
@@ -4466,29 +2597,34 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>274</v>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -4496,10 +2632,10 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -4507,7 +2643,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -4518,7 +2654,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4529,7 +2665,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -4540,7 +2676,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -4551,7 +2687,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -4562,10 +2698,10 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -4573,7 +2709,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -4581,7 +2717,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -4592,10 +2728,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
@@ -4603,7 +2739,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -4614,7 +2750,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -4625,7 +2761,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -4636,7 +2772,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -4647,7 +2783,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -4658,10 +2794,10 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -4669,10 +2805,10 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>298</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -4682,7 +2818,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -4690,7 +2826,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -4701,7 +2837,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>301</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -4712,7 +2848,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4723,10 +2859,10 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
@@ -4734,7 +2870,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -4745,7 +2881,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
@@ -4758,7 +2894,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>307</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -4769,7 +2905,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -4780,7 +2916,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -4791,7 +2927,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -4813,7 +2949,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>311</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -4832,7 +2968,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -4845,7 +2981,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -4853,10 +2989,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
@@ -4887,26 +3023,26 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -4917,7 +3053,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -4928,7 +3064,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>317</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -4939,7 +3075,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -5015,10 +3151,10 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -5026,7 +3162,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>321</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -5037,7 +3173,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -5045,7 +3181,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
         <v>2</v>
@@ -5073,30 +3209,30 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B84" t="s">
-        <v>324</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B85" t="s">
-        <v>285</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -5151,7 +3287,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
         <v>31</v>
@@ -5162,25 +3298,1964 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:C146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>211</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>248</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" t="s">
+        <v>226</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B131" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" t="s">
+        <v>258</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C136" t="s">
+        <v>260</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" t="s">
+        <v>262</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>263</v>
+      </c>
+      <c r="C138" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>266</v>
+      </c>
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>268</v>
+      </c>
+      <c r="B145" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>271</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>272</v>
+      </c>
+      <c r="B149" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" t="s">
+        <v>277</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>282</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>283</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>284</v>
+      </c>
+      <c r="C157" t="s">
+        <v>151</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>285</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>286</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>287</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>288</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>290</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>291</v>
+      </c>
+      <c r="D166" t="s">
+        <v>292</v>
+      </c>
+      <c r="E166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>293</v>
+      </c>
+      <c r="D167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" t="s">
+        <v>151</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" t="s">
+        <v>296</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>298</v>
+      </c>
+      <c r="B174" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>300</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>301</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>302</v>
+      </c>
+      <c r="B177" t="s">
+        <v>303</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>304</v>
+      </c>
+      <c r="B178" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>305</v>
+      </c>
+      <c r="B179" t="s">
+        <v>275</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>306</v>
+      </c>
+      <c r="B180" t="s">
+        <v>275</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>307</v>
+      </c>
+      <c r="B181" t="s">
+        <v>303</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>308</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>310</v>
+      </c>
+      <c r="B184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>312</v>
+      </c>
+      <c r="B186" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>323</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5191,10 +5266,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5213,7 +5288,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5301,7 +5376,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -5312,7 +5387,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -5334,7 +5409,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -5345,7 +5420,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -5364,10 +5439,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -5375,7 +5450,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -5383,7 +5458,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -5396,7 +5471,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -5407,7 +5482,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -5415,7 +5490,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -5428,7 +5503,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -5436,7 +5511,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -5444,7 +5519,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
@@ -5452,7 +5527,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
@@ -5460,7 +5535,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
@@ -5468,7 +5543,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -5476,7 +5551,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
@@ -5484,7 +5559,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -5499,7 +5574,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -5507,7 +5582,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
@@ -5518,10 +5593,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -5529,10 +5604,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -5540,7 +5615,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -5551,7 +5626,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -5564,7 +5639,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -5575,7 +5650,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -5586,7 +5661,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -5597,7 +5672,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
@@ -5608,10 +5683,10 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="E45" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -5626,7 +5701,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -5637,7 +5712,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
         <v>333</v>
@@ -5648,7 +5723,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -5659,7 +5734,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
         <v>334</v>
@@ -5670,7 +5745,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -5681,7 +5756,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
         <v>31</v>
@@ -5692,7 +5767,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -5703,10 +5778,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
@@ -5714,7 +5789,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -5725,7 +5800,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -5736,7 +5811,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
         <v>31</v>
@@ -5747,7 +5822,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -5758,10 +5833,10 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -5771,7 +5846,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -5779,7 +5854,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -5787,7 +5862,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -5795,7 +5870,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
@@ -5803,7 +5878,7 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
@@ -5811,7 +5886,7 @@
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
         <v>3</v>
@@ -5819,7 +5894,7 @@
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
@@ -5827,7 +5902,7 @@
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
@@ -5835,7 +5910,7 @@
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
@@ -5843,7 +5918,7 @@
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
@@ -5851,7 +5926,7 @@
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -5859,7 +5934,7 @@
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -5867,7 +5942,7 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
@@ -5875,7 +5950,7 @@
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
@@ -5883,7 +5958,7 @@
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="E76" t="s">
         <v>3</v>
@@ -5891,7 +5966,7 @@
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
@@ -5899,7 +5974,7 @@
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="E78" t="s">
         <v>3</v>
@@ -5907,7 +5982,7 @@
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -5915,7 +5990,7 @@
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
         <v>3</v>
@@ -5923,7 +5998,7 @@
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -5931,7 +6006,7 @@
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -5939,7 +6014,7 @@
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="E83" t="s">
         <v>3</v>
@@ -5947,7 +6022,7 @@
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -5955,7 +6030,7 @@
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
@@ -5963,7 +6038,7 @@
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -5971,7 +6046,7 @@
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
@@ -5979,7 +6054,7 @@
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="E88" t="s">
         <v>3</v>
@@ -5987,7 +6062,7 @@
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
         <v>3</v>
@@ -5995,7 +6070,7 @@
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
@@ -6003,7 +6078,7 @@
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -6011,7 +6086,7 @@
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
@@ -6019,7 +6094,7 @@
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
@@ -6027,7 +6102,7 @@
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="E94" t="s">
         <v>3</v>
@@ -6035,7 +6110,7 @@
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="E95" t="s">
         <v>3</v>
@@ -6043,102 +6118,102 @@
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="E100" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="E103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="E105" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -6147,29 +6222,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" t="s">
-        <v>154</v>
-      </c>
-      <c r="D110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>335</v>
       </c>
@@ -6190,7 +6266,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="D114" t="s">
         <v>0</v>
@@ -6198,7 +6274,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -6216,7 +6292,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -6227,10 +6303,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -6238,7 +6314,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="C120" t="s">
         <v>34</v>
@@ -6249,7 +6325,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -6284,7 +6360,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -6295,7 +6371,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
@@ -6438,7 +6514,7 @@
         <v>358</v>
       </c>
       <c r="C139" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -6448,7 +6524,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -6459,7 +6535,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
@@ -6467,10 +6543,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D143" t="s">
         <v>3</v>
@@ -6478,7 +6554,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -6489,7 +6565,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -6500,10 +6576,10 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -6511,7 +6587,7 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -6522,7 +6598,7 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -6533,10 +6609,10 @@
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D149" t="s">
         <v>3</v>
@@ -6547,7 +6623,7 @@
         <v>35</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D150" t="s">
         <v>3</v>
@@ -6555,7 +6631,7 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -6566,10 +6642,10 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="C152" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -6577,7 +6653,7 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -6588,7 +6664,7 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -6599,10 +6675,10 @@
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -6610,7 +6686,7 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -6621,7 +6697,7 @@
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -6632,10 +6708,10 @@
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -6643,10 +6719,10 @@
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -6654,10 +6730,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -6665,10 +6741,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -6676,7 +6752,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -6689,7 +6765,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>0</v>
@@ -6832,7 +6908,7 @@
         <v>358</v>
       </c>
       <c r="C177" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6842,7 +6918,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
@@ -6883,10 +6959,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C183" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
@@ -6897,7 +6973,7 @@
         <v>362</v>
       </c>
       <c r="C184" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -6918,10 +6994,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="B187" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
@@ -6929,10 +7005,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="B188" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C188" t="s">
         <v>3</v>
@@ -6940,7 +7016,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="B189" t="s">
         <v>0</v>
@@ -6948,10 +7024,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C190" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
@@ -6959,10 +7035,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="C191" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -6970,10 +7046,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="C192" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="D192" t="s">
         <v>3</v>
@@ -6981,10 +7057,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="C193" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6994,7 +7070,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -7005,7 +7081,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="B196" t="s">
         <v>31</v>
@@ -7015,19 +7091,19 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>204</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="A197" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B198" t="s">
         <v>334</v>
@@ -7038,7 +7114,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="B199" t="s">
         <v>0</v>
@@ -7079,10 +7155,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -7124,19 +7200,19 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>206</v>
-      </c>
-      <c r="B208" t="s">
-        <v>87</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="A208" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="B209" t="s">
         <v>31</v>
@@ -7147,7 +7223,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -7158,10 +7234,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="C211" t="s">
         <v>3</v>
@@ -7179,22 +7255,22 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>211</v>
-      </c>
-      <c r="B213" t="s">
-        <v>212</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="A213" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
@@ -7202,7 +7278,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="B215" t="s">
         <v>36</v>
@@ -7212,22 +7288,22 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216" t="s">
+      <c r="A216" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="C217" t="s">
         <v>3</v>
@@ -7235,7 +7311,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -7246,7 +7322,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="B219" t="s">
         <v>0</v>
@@ -7254,10 +7330,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C220" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -7265,10 +7341,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="C221" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
@@ -7276,10 +7352,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="C222" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
@@ -7287,10 +7363,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="C223" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7300,10 +7376,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="B225" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="C225" t="s">
         <v>3</v>
@@ -7322,7 +7398,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -7333,7 +7409,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -7344,10 +7420,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B229" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="C229" t="s">
         <v>3</v>
@@ -7355,10 +7431,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="B230" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="C230" t="s">
         <v>3</v>
@@ -7366,10 +7442,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="C231" t="s">
         <v>3</v>
@@ -7377,10 +7453,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="C232" t="s">
         <v>3</v>
@@ -7388,7 +7464,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -7398,121 +7474,108 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>371</v>
-      </c>
-      <c r="B234" t="s">
-        <v>372</v>
-      </c>
-      <c r="C234" t="s">
-        <v>3</v>
+      <c r="A234" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>245</v>
-      </c>
-      <c r="B235" t="s">
-        <v>369</v>
-      </c>
-      <c r="C235" t="s">
-        <v>3</v>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>373</v>
-      </c>
-      <c r="B236" t="s">
-        <v>87</v>
-      </c>
-      <c r="C236" t="s">
-        <v>3</v>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="C237" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>374</v>
-      </c>
-      <c r="B238" t="s">
+      <c r="A238" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C238" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>247</v>
-      </c>
-      <c r="B239" t="s">
+      <c r="C240" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C239" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>375</v>
-      </c>
-      <c r="B240" t="s">
-        <v>369</v>
-      </c>
-      <c r="C240" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>376</v>
-      </c>
-      <c r="B241" t="s">
-        <v>48</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="C241" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="C242" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>248</v>
-      </c>
-      <c r="B243" t="s">
-        <v>31</v>
-      </c>
-      <c r="C243" t="s">
+      <c r="A243" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="B244" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>3</v>
@@ -7520,7 +7583,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="B245" t="s">
         <v>31</v>
@@ -7531,72 +7594,72 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="B246" t="s">
+        <v>31</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>312</v>
+      </c>
+      <c r="B247" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>376</v>
+      </c>
+      <c r="B248" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B247" t="s">
-        <v>379</v>
-      </c>
-      <c r="C247" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>377</v>
+      </c>
+      <c r="C249" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C248" t="s">
-        <v>380</v>
-      </c>
-      <c r="D248" t="s">
-        <v>381</v>
-      </c>
-      <c r="E248" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C249" t="s">
-        <v>382</v>
-      </c>
-      <c r="D249" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C250" t="s">
+        <v>378</v>
+      </c>
+      <c r="D250" t="s">
+        <v>379</v>
+      </c>
+      <c r="E250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C251" t="s">
+        <v>380</v>
+      </c>
+      <c r="D251" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C252" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B251" t="s">
-        <v>384</v>
-      </c>
-      <c r="C251" t="s">
-        <v>369</v>
-      </c>
-      <c r="D251" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B252" t="s">
-        <v>385</v>
-      </c>
-      <c r="C252" t="s">
-        <v>386</v>
-      </c>
-      <c r="D252" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C253" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
@@ -7604,10 +7667,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C254" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -7615,257 +7678,294 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C255" t="s">
+        <v>338</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>386</v>
+      </c>
+      <c r="C256" t="s">
+        <v>387</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>388</v>
+      </c>
+      <c r="C257" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C256" t="s">
-        <v>380</v>
-      </c>
-      <c r="D256" t="s">
-        <v>381</v>
-      </c>
-      <c r="E256" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C257" t="s">
-        <v>382</v>
-      </c>
-      <c r="D257" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C258" t="s">
-        <v>27</v>
+        <v>378</v>
+      </c>
+      <c r="D258" t="s">
+        <v>379</v>
+      </c>
+      <c r="E258" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B259" t="s">
-        <v>392</v>
-      </c>
       <c r="C259" t="s">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="D259" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C260" t="s">
-        <v>380</v>
-      </c>
-      <c r="D260" t="s">
-        <v>381</v>
-      </c>
-      <c r="E260" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>390</v>
+      </c>
       <c r="C261" t="s">
-        <v>382</v>
-      </c>
-      <c r="D261" t="s">
-        <v>383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C262" t="s">
+        <v>378</v>
+      </c>
+      <c r="D262" t="s">
+        <v>379</v>
+      </c>
+      <c r="E262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C263" t="s">
+        <v>380</v>
+      </c>
+      <c r="D263" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C264" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B263" t="s">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>382</v>
-      </c>
-      <c r="B264" t="s">
-        <v>369</v>
-      </c>
-      <c r="C264" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>251</v>
-      </c>
-      <c r="B265" t="s">
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>252</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D267" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
-        <v>256</v>
-      </c>
-      <c r="C268" t="s">
-        <v>258</v>
-      </c>
-      <c r="D268" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
-        <v>257</v>
-      </c>
-      <c r="C269" t="s">
-        <v>258</v>
-      </c>
-      <c r="D269" t="s">
+      <c r="D269" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
-        <v>259</v>
-      </c>
-      <c r="C270" t="s">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D270" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B271" t="s">
-        <v>260</v>
-      </c>
-      <c r="C271" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
+      <c r="D272" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>393</v>
       </c>
-      <c r="B274" t="s">
-        <v>87</v>
-      </c>
-      <c r="C274" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>261</v>
-      </c>
-      <c r="B275" t="s">
-        <v>5</v>
-      </c>
-      <c r="C275" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+      <c r="B280" t="s">
+        <v>303</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>394</v>
       </c>
-      <c r="B276" t="s">
-        <v>324</v>
-      </c>
-      <c r="C276" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>262</v>
-      </c>
-      <c r="B277" t="s">
-        <v>324</v>
-      </c>
-      <c r="C277" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>395</v>
       </c>
-      <c r="B278" t="s">
-        <v>369</v>
-      </c>
-      <c r="C278" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>263</v>
-      </c>
-      <c r="B279" t="s">
-        <v>285</v>
-      </c>
-      <c r="C279" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>120</v>
+      </c>
+      <c r="B284" t="s">
         <v>396</v>
       </c>
-      <c r="B280" t="s">
-        <v>5</v>
-      </c>
-      <c r="C280" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>397</v>
-      </c>
-      <c r="B281" t="s">
-        <v>5</v>
-      </c>
-      <c r="C281" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>321</v>
-      </c>
-      <c r="B282" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>16</v>
       </c>
     </row>

--- a/i2up/excel/rule_auto.xlsx
+++ b/i2up/excel/rule_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A51CB9D-39AB-294D-B2E9-30DE74A2E91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1547D4-DFF1-EF4E-A9C0-A1C37A03107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="28140" windowHeight="15180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="28140" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_u" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="136">
   <si>
     <t>{</t>
   </si>
@@ -308,9 +308,6 @@
     <t>192.168.55.250</t>
   </si>
   <si>
-    <t>192.168.55.252</t>
-  </si>
-  <si>
     <t>manga</t>
   </si>
   <si>
@@ -431,13 +428,7 @@
     <t>export</t>
   </si>
   <si>
-    <t>credential</t>
-  </si>
-  <si>
     <t>portfolio</t>
-  </si>
-  <si>
-    <t>192.168.55.254</t>
   </si>
   <si>
     <t>asset</t>
@@ -804,9 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2071,22 +2060,22 @@
         <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2094,25 +2083,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
       </c>
       <c r="D2">
         <v>26804</v>
       </c>
       <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2125,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49F8E9-B962-1843-8F78-FE23AAE2A24E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2168,7 +2157,7 @@
         <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>84</v>
@@ -2202,90 +2191,65 @@
       <c r="G2">
         <v>3306</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G3">
         <v>3306</v>
       </c>
-      <c r="H3" t="s">
-        <v>134</v>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="G4">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5">
-        <v>3306</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6">
         <v>9092</v>
       </c>
     </row>
@@ -2325,49 +2289,49 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
         <v>122</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2375,28 +2339,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
         <v>129</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" t="s">
-        <v>130</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2405,13 +2369,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" t="s">
         <v>131</v>
       </c>
-      <c r="M2" t="s">
-        <v>132</v>
-      </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2419,16 +2383,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2436,28 +2400,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2466,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" t="s">
         <v>131</v>
       </c>
-      <c r="M4" t="s">
-        <v>132</v>
-      </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O4">
         <v>1</v>

--- a/i2up/excel/rule_auto.xlsx
+++ b/i2up/excel/rule_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1547D4-DFF1-EF4E-A9C0-A1C37A03107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A048CC-F471-2840-A14B-8AE2683E3788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="28140" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="28140" windowHeight="15180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_u" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="135">
   <si>
     <t>{</t>
   </si>
@@ -302,9 +302,6 @@
     <t>mysql</t>
   </si>
   <si>
-    <t>soure|target</t>
-  </si>
-  <si>
     <t>192.168.55.250</t>
   </si>
   <si>
@@ -431,10 +428,10 @@
     <t>portfolio</t>
   </si>
   <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>msq_u_c1_2</t>
+    <t>msq_test</t>
+  </si>
+  <si>
+    <t>source|target</t>
   </si>
 </sst>
 </file>
@@ -795,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2060,22 +2057,22 @@
         <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2083,25 +2080,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
       </c>
       <c r="D2">
         <v>26804</v>
       </c>
       <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2116,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49F8E9-B962-1843-8F78-FE23AAE2A24E}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2126,6 +2123,7 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
@@ -2157,7 +2155,7 @@
         <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>84</v>
@@ -2183,19 +2181,19 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
       </c>
       <c r="G2">
         <v>3306</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2203,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -2212,22 +2210,22 @@
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>3306</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2235,19 +2233,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
       </c>
       <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4">
         <v>9092</v>
@@ -2261,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76AAA83-80DE-C04C-95F4-C95AE871C727}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2289,49 +2287,49 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>117</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
         <v>121</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2339,43 +2337,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
         <v>128</v>
-      </c>
-      <c r="I2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" t="s">
-        <v>129</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2383,16 +2381,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2400,28 +2398,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2430,16 +2422,24 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
         <v>130</v>
       </c>
-      <c r="M4" t="s">
-        <v>131</v>
-      </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/i2up/excel/rule_auto.xlsx
+++ b/i2up/excel/rule_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A048CC-F471-2840-A14B-8AE2683E3788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4CA6C2-43C6-A249-B66A-2E44EFA73825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="28140" windowHeight="15180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="28140" windowHeight="15180" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_u" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="143">
   <si>
     <t>{</t>
   </si>
@@ -263,39 +263,9 @@
     <t>"tgt_db_name":</t>
   </si>
   <si>
-    <t>NO.</t>
-  </si>
-  <si>
-    <t>node_name</t>
-  </si>
-  <si>
-    <t>db_type</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>passwd</t>
-  </si>
-  <si>
-    <t>defalut_db</t>
-  </si>
-  <si>
     <t>msq_u_auto</t>
   </si>
   <si>
-    <t>db_name</t>
-  </si>
-  <si>
     <t>centos1</t>
   </si>
   <si>
@@ -314,27 +284,6 @@
     <t>192.168.55.11</t>
   </si>
   <si>
-    <t>kfk_u_auto</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>data_port</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>node_type</t>
-  </si>
-  <si>
     <t>hadoop3</t>
   </si>
   <si>
@@ -350,63 +299,6 @@
     <t>Info@1234</t>
   </si>
   <si>
-    <t>src|tgt</t>
-  </si>
-  <si>
-    <t>log_dir</t>
-  </si>
-  <si>
-    <t>cache_dir</t>
-  </si>
-  <si>
-    <t>mysql_name</t>
-  </si>
-  <si>
-    <t>src_db_name</t>
-  </si>
-  <si>
-    <t>src_db</t>
-  </si>
-  <si>
-    <t>src_table</t>
-  </si>
-  <si>
-    <t>tgt_db_name</t>
-  </si>
-  <si>
-    <t>dst_db</t>
-  </si>
-  <si>
-    <t>dst_table</t>
-  </si>
-  <si>
-    <t>full_sync</t>
-  </si>
-  <si>
-    <t>dump_thd</t>
-  </si>
-  <si>
-    <t>load_thd</t>
-  </si>
-  <si>
-    <t>existing_table</t>
-  </si>
-  <si>
-    <t>incre_sync</t>
-  </si>
-  <si>
-    <t>dyn_thread</t>
-  </si>
-  <si>
-    <t>full_sync_custom_cfg</t>
-  </si>
-  <si>
-    <t>incre_full_sync_custom_cfg</t>
-  </si>
-  <si>
-    <t>cred_name</t>
-  </si>
-  <si>
     <t>msq_u_c1_auto</t>
   </si>
   <si>
@@ -431,14 +323,342 @@
     <t>msq_test</t>
   </si>
   <si>
-    <t>source|target</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凭据名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认数据库</t>
+    </r>
+  </si>
+  <si>
+    <t>所有者</t>
+  </si>
+  <si>
+    <t>源库|备库</t>
+  </si>
+  <si>
+    <t>备库</t>
+  </si>
+  <si>
+    <t>数据库类型</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>工作节点</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据端口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据缓存目录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志目录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点类型</t>
+    </r>
+  </si>
+  <si>
+    <t>源端节点|备端节点</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备端数据库</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备端库名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备端表名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全量装载线程数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表覆盖策略</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增量同步</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作装载时间和日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作装载标记</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有者</t>
+    </r>
+  </si>
+  <si>
+    <t>全量自定义配置</t>
+  </si>
+  <si>
+    <t>增量自定义配置</t>
+  </si>
+  <si>
+    <t>源端数据库</t>
+  </si>
+  <si>
+    <t>源端库名</t>
+  </si>
+  <si>
+    <t>源端表名</t>
+  </si>
+  <si>
+    <t>全量同步</t>
+  </si>
+  <si>
+    <t>增量装载线程数</t>
+  </si>
+  <si>
+    <t>全量导出线程数</t>
+  </si>
+  <si>
+    <t>规则名称</t>
+  </si>
+  <si>
+    <t>cdc_upd_tmstamp</t>
+  </si>
+  <si>
+    <t>cdc_upd_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +681,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +702,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -478,15 +710,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,9 +1047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -803,12 +1060,12 @@
     <col min="5" max="5" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -816,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -827,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -835,12 +1092,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -851,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -859,17 +1116,17 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -877,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -885,17 +1142,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -903,12 +1160,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="C15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -919,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -930,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -938,22 +1195,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="C20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -964,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -975,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -983,7 +1240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1258,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -1010,12 +1267,12 @@
     <col min="5" max="5" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1042,12 +1299,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -1066,17 +1323,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1084,17 +1341,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1102,12 +1359,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="C19" t="s">
         <v>35</v>
       </c>
@@ -1162,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="C21" t="s">
         <v>37</v>
       </c>
@@ -1184,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1192,22 +1449,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1218,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1229,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1255,7 +1512,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -1263,12 +1520,12 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1295,12 +1552,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -1319,17 +1576,17 @@
         <v>9092</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1337,22 +1594,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1657,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
@@ -1409,12 +1666,12 @@
     <col min="5" max="5" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -1433,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1441,12 +1698,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1457,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1468,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1479,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1490,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1501,7 +1758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1512,7 +1769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1523,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1531,12 +1788,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>56</v>
       </c>
@@ -1544,12 +1801,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="C17" t="s">
         <v>57</v>
       </c>
@@ -1560,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="C18" t="s">
         <v>59</v>
       </c>
@@ -1568,17 +1825,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="C20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -1589,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>61</v>
       </c>
@@ -1600,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -1611,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -1619,17 +1876,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1640,7 +1897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1648,7 +1905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +1923,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
@@ -1675,12 +1932,12 @@
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1696,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -1707,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>69</v>
       </c>
@@ -1718,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="C6" t="s">
         <v>70</v>
       </c>
@@ -1726,12 +1983,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>60</v>
       </c>
@@ -1753,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>61</v>
       </c>
@@ -1764,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="D11" t="s">
         <v>63</v>
       </c>
@@ -1775,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="D12" t="s">
         <v>64</v>
       </c>
@@ -1783,17 +2040,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>72</v>
       </c>
@@ -1801,17 +2058,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1822,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1833,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1844,7 +2101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1855,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1866,7 +2123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1874,17 +2131,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1895,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1906,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1917,7 +2174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1925,12 +2182,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="B30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -1941,7 +2198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -1952,7 +2209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -1963,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -1974,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -1982,17 +2239,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="B37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2003,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2014,7 +2271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -2022,7 +2279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2036,69 +2293,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53CE64-CEB5-8542-B539-0B6E7451096E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>26804</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2106,149 +2363,149 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{7FDEB728-D3FF-ED41-8A3E-2CBDADD5B886}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49F8E9-B962-1843-8F78-FE23AAE2A24E}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" s="5">
+        <v>3306</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2">
+      <c r="H3" s="5">
         <v>3306</v>
       </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3">
-        <v>3306</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <v>9092</v>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2259,13 +2516,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76AAA83-80DE-C04C-95F4-C95AE871C727}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -2273,92 +2530,103 @@
     <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="N1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" t="s">
-        <v>128</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -2367,53 +2635,62 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="E3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
         <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>128</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2422,24 +2699,27 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/i2up/excel/rule_auto.xlsx
+++ b/i2up/excel/rule_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4CA6C2-43C6-A249-B66A-2E44EFA73825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C753CB-1236-9A4E-8842-9C7186901177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="28140" windowHeight="15180" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="620" windowWidth="28140" windowHeight="15180" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_u" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,16 @@
     <sheet name="msq_u_kfk" sheetId="5" r:id="rId5"/>
     <sheet name="work_node" sheetId="7" r:id="rId6"/>
     <sheet name="db_node" sheetId="9" r:id="rId7"/>
-    <sheet name="msq_rule" sheetId="8" r:id="rId8"/>
+    <sheet name="kfk_node" sheetId="10" r:id="rId8"/>
+    <sheet name="msq_msq_rule" sheetId="8" r:id="rId9"/>
+    <sheet name="msq_kfk_rule" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="154">
   <si>
     <t>{</t>
   </si>
@@ -431,16 +433,7 @@
     <t>所有者</t>
   </si>
   <si>
-    <t>源库|备库</t>
-  </si>
-  <si>
     <t>备库</t>
-  </si>
-  <si>
-    <t>数据库类型</t>
-  </si>
-  <si>
-    <t>MySQL</t>
   </si>
   <si>
     <t>工作节点</t>
@@ -652,6 +645,81 @@
   </si>
   <si>
     <t>cdc_upd_type</t>
+  </si>
+  <si>
+    <t>kfk_u_auto</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>身份认证</t>
+  </si>
+  <si>
+    <r>
+      <t>kafka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凭证</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kafka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>keytab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径</t>
+    </r>
+  </si>
+  <si>
+    <t>kerberos</t>
+  </si>
+  <si>
+    <t>root/kafka_keytab</t>
+  </si>
+  <si>
+    <t>kafka@sdp1-xyk</t>
+  </si>
+  <si>
+    <t>备端topic</t>
+  </si>
+  <si>
+    <t>备端自动建表</t>
+  </si>
+  <si>
+    <t>dump.no.data=true</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>msq_u_kfk_auto</t>
   </si>
 </sst>
 </file>
@@ -702,7 +770,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -725,23 +793,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1250,6 +1349,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F785585-F36B-294D-B818-49D5E8C12014}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="C4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E29"/>
@@ -1509,7 +1749,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1919,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -2293,7 +2533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53CE64-CEB5-8542-B539-0B6E7451096E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -2308,28 +2550,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>102</v>
       </c>
       <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2355,7 +2597,7 @@
         <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49F8E9-B962-1843-8F78-FE23AAE2A24E}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2382,16 +2624,15 @@
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>99</v>
       </c>
@@ -2399,40 +2640,37 @@
         <v>100</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2445,31 +2683,26 @@
       <c r="D2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="5">
+      <c r="G2" s="5">
         <v>3306</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="L2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2483,18 +2716,18 @@
         <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="5">
+      <c r="G3" s="5">
         <v>3306</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>82</v>
       </c>
@@ -2502,9 +2735,6 @@
         <v>82</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2515,11 +2745,123 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00E08A5-ABC4-3947-A76D-AB94C6311FFD}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="5">
+        <v>9092</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="E15" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{F95E29FD-AA1D-C04A-A2FE-536CAA040B26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76AAA83-80DE-C04C-95F4-C95AE871C727}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2546,58 +2888,58 @@
         <v>99</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>128</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2647,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S2" t="s">
         <v>98</v>

--- a/i2up/excel/rule_auto.xlsx
+++ b/i2up/excel/rule_auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C753CB-1236-9A4E-8842-9C7186901177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC8943D-9D8F-554B-B854-5862BAE2716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="620" windowWidth="28140" windowHeight="15180" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="520" windowWidth="28140" windowHeight="15180" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msq_u" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="152">
   <si>
     <t>{</t>
   </si>
@@ -698,15 +698,6 @@
     </r>
   </si>
   <si>
-    <t>kerberos</t>
-  </si>
-  <si>
-    <t>root/kafka_keytab</t>
-  </si>
-  <si>
-    <t>kafka@sdp1-xyk</t>
-  </si>
-  <si>
     <t>备端topic</t>
   </si>
   <si>
@@ -720,6 +711,9 @@
   </si>
   <si>
     <t>msq_u_kfk_auto</t>
+  </si>
+  <si>
+    <t>源库|备库</t>
   </si>
 </sst>
 </file>
@@ -822,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,13 +828,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1353,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F785585-F36B-294D-B818-49D5E8C12014}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1393,13 +1386,13 @@
         <v>133</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>134</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>136</v>
@@ -1428,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -1458,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -2614,7 +2607,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2683,7 +2676,9 @@
       <c r="D2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="F2" s="5" t="s">
         <v>81</v>
       </c>
@@ -2748,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00E08A5-ABC4-3947-A76D-AB94C6311FFD}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2793,7 +2788,7 @@
       <c r="H1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>143</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -2828,18 +2823,10 @@
       <c r="G2" s="5">
         <v>9092</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
         <v>98</v>
       </c>
@@ -2848,9 +2835,6 @@
       <c r="E15" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{F95E29FD-AA1D-C04A-A2FE-536CAA040B26}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
